--- a/Emma2.xlsx
+++ b/Emma2.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="path" sheetId="1" r:id="rId1"/>
     <sheet name="KT" sheetId="2" r:id="rId2"/>
     <sheet name="AIG doc" sheetId="4" r:id="rId3"/>
-    <sheet name="Source模块结构" sheetId="3" r:id="rId4"/>
-    <sheet name="VB6.0安装" sheetId="5" r:id="rId5"/>
+    <sheet name="1.组件安装" sheetId="8" r:id="rId4"/>
+    <sheet name="2.VB6.0安装" sheetId="5" r:id="rId5"/>
     <sheet name="缺少组件和dll一览" sheetId="6" r:id="rId6"/>
     <sheet name="ALPS" sheetId="7" r:id="rId7"/>
-    <sheet name="组件安装" sheetId="8" r:id="rId8"/>
+    <sheet name="Source模块结构" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="357">
   <si>
     <t>\\10.225.68.15\shares\1_AIG</t>
   </si>
@@ -275,7 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -285,7 +285,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -739,7 +739,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -749,7 +749,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -760,7 +760,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -782,7 +782,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -792,7 +792,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -808,7 +808,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -818,7 +818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,7 +833,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -843,7 +843,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -863,7 +863,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -873,7 +873,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -883,7 +883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -907,7 +907,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -917,7 +917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -935,7 +935,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -945,7 +945,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -955,7 +955,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -970,7 +970,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -980,7 +980,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -990,7 +990,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1284,7 +1284,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1294,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1304,16 +1304,108 @@
   <si>
     <t>Setup Is Updating Your System</t>
   </si>
+  <si>
+    <t>以下是中文专业版系统安装</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Sybase安装失败</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符集问题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.S3 Global 安装失败</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>***** Beginning S3 Global FE G04.01.00 11-8-2020 10:12:56</t>
+  </si>
+  <si>
+    <t>Checking  Microsoft Office...</t>
+  </si>
+  <si>
+    <t>****ERROR*** Missing Required Software:Software\Microsoft\Office\8.0</t>
+  </si>
+  <si>
+    <t>Checking  S3 Core FE...</t>
+  </si>
+  <si>
+    <t>Installed.</t>
+  </si>
+  <si>
+    <t>Checking  Sybase...</t>
+  </si>
+  <si>
+    <t>***SEVERE*** RegDBGetKeyValueEx() Failed for Env Var: szWhichPATH=SYBASE</t>
+  </si>
+  <si>
+    <t>****ERROR**** Sybase not installed.</t>
+  </si>
+  <si>
+    <t>***ERROR*** You Do not have the required software.</t>
+  </si>
+  <si>
+    <t>***** Ending S3 Global FE G04.01.00 11-8-2020 10:13:02</t>
+  </si>
+  <si>
+    <t>The wizard cannot continue because of the following error: wizard file has changed since it was created (107)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确定   </t>
+  </si>
+  <si>
+    <r>
+      <t>WARNING: Default charset GBK not supported, using</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ISO-8859-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstallShield Wizard</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO-8859-1编码是单字节编码，向下兼容ASCII，其编码范围是0x00-0xFF，0x00-0x7F之间完全和ASCII一致，0x80-0x9F之间是控制字符，0xA0-0xFF之间是文字符号。</t>
+  </si>
+  <si>
+    <t>此字符集支持部分于欧洲使用的语言，包括阿尔巴尼亚语、巴斯克语、布列塔尼语、加泰罗尼亚语、丹麦语、荷兰语、法罗语、弗里西语、加利西亚语、德语、格陵兰语、冰岛语、爱尔兰盖尔语、意大利语、拉丁语、卢森堡语、挪威语、葡萄牙语、里托罗曼斯语、苏格兰盖尔语、西班牙语及瑞典语。</t>
+  </si>
+  <si>
+    <t>英语虽然没有重音字母，但仍会标明为ISO/IEC 8859-1编码。除此之外，欧洲以外的部分语言，如南非荷兰语、斯瓦希里语、印尼语及马来语、菲律宾他加洛语等也可使用ISO/IEC 8859-1编码。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1321,14 +1413,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1336,13 +1428,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1350,7 +1442,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1359,8 +1451,23 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1452,8 +1559,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2055,18 +2162,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>103924</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47214</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2079,8 +2186,355 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="6809524" cy="3285714"/>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="6400000" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275276</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9906000"/>
+          <a:ext cx="7590476" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>608838</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="6095238" cy="4819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="6067425"/>
+          <a:ext cx="2676525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="10487025"/>
+          <a:ext cx="2819400" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>284800</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>85071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15621000"/>
+          <a:ext cx="7600000" cy="5228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="16725900"/>
+          <a:ext cx="752475" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>237409</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>113833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21907500"/>
+          <a:ext cx="5723809" cy="3733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2803,18 +3257,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180595</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103924</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2827,355 +3281,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="952500"/>
-          <a:ext cx="6400000" cy="3038095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>275276</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>66024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9906000"/>
-          <a:ext cx="7590476" cy="5209524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>608838</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>56548</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4191000"/>
-          <a:ext cx="6095238" cy="4819048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="47625" y="6067425"/>
-          <a:ext cx="2676525" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2990850" y="10487025"/>
-          <a:ext cx="2819400" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>284800</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>85071</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="15621000"/>
-          <a:ext cx="7600000" cy="5228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314450" y="16725900"/>
-          <a:ext cx="752475" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>237409</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>113833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="21907500"/>
-          <a:ext cx="5723809" cy="3733333"/>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="6809524" cy="3285714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3489,45 +3596,45 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>316</v>
       </c>
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>317</v>
       </c>
@@ -3536,7 +3643,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -3544,17 +3651,17 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>321</v>
       </c>
@@ -3562,17 +3669,18 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
@@ -3591,14 +3699,14 @@
       <selection activeCell="M171" sqref="M171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -3606,27 +3714,27 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3644,17 +3752,17 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3665,7 +3773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3679,7 +3787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3693,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3704,7 +3812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3712,7 +3820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3732,16 +3840,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3749,12 +3857,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3762,37 +3870,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>91</v>
       </c>
@@ -3800,7 +3908,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>32</v>
       </c>
@@ -3814,7 +3922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -3828,7 +3936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -3842,7 +3950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -3856,7 +3964,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -3870,7 +3978,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -3884,12 +3992,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -3900,7 +4008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -3914,12 +4022,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J63" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -3933,7 +4041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -3944,22 +4052,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -3967,22 +4075,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>58</v>
       </c>
@@ -3996,7 +4104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H81" t="s">
         <v>62</v>
       </c>
@@ -4004,7 +4112,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H82" t="s">
         <v>64</v>
       </c>
@@ -4012,7 +4120,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H83" t="s">
         <v>66</v>
       </c>
@@ -4020,42 +4128,42 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4077,285 +4185,286 @@
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4370,19 +4479,19 @@
       <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K4" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>113</v>
       </c>
@@ -4390,7 +4499,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K6" s="3" t="s">
         <v>116</v>
       </c>
@@ -4398,82 +4507,82 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K7" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K9" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K11" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="11:17" x14ac:dyDescent="0.2">
       <c r="K16" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>105</v>
       </c>
@@ -4481,7 +4590,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>106</v>
       </c>
@@ -4489,7 +4598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>107</v>
       </c>
@@ -4497,282 +4606,282 @@
         <v>110</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E320" s="15" t="s">
         <v>168</v>
       </c>
@@ -4783,7 +4892,7 @@
       <c r="H320" s="15"/>
       <c r="I320" s="15"/>
     </row>
-    <row r="321" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E321" s="17" t="s">
         <v>4</v>
       </c>
@@ -4794,7 +4903,7 @@
       <c r="H321" s="16"/>
       <c r="I321" s="16"/>
     </row>
-    <row r="322" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E322" s="17" t="s">
         <v>170</v>
       </c>
@@ -4805,7 +4914,7 @@
       <c r="H322" s="16"/>
       <c r="I322" s="16"/>
     </row>
-    <row r="323" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E323" s="17" t="s">
         <v>166</v>
       </c>
@@ -4827,6 +4936,7 @@
     <mergeCell ref="E322:F322"/>
     <mergeCell ref="E323:F323"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4888,30 +4998,251 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A22:B25"/>
+  <dimension ref="A2:P182"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>312</v>
+      </c>
+      <c r="E143" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>313</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4926,24 +5257,24 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4957,37 +5288,37 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5001,22 +5332,23 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J84" s="3" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5027,18 +5359,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>292</v>
       </c>
@@ -5049,7 +5381,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -5060,7 +5392,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -5071,7 +5403,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -5082,7 +5414,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -5093,7 +5425,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -5104,7 +5436,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -5115,7 +5447,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -5126,11 +5458,11 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5139,7 +5471,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5148,392 +5480,392 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -5551,7 +5883,7 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5571,142 +5903,142 @@
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>272</v>
       </c>
@@ -5722,6 +6054,7 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5733,22 +6066,23 @@
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5756,107 +6090,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P144"/>
+  <dimension ref="A22:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="L136" sqref="L136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>312</v>
-      </c>
-      <c r="E143" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>313</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>314</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Emma2.xlsx
+++ b/Emma2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="903" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="path" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="KT" sheetId="2" r:id="rId3"/>
     <sheet name="KT2" sheetId="9" r:id="rId4"/>
     <sheet name="KT3" sheetId="12" r:id="rId5"/>
-    <sheet name="AIG doc" sheetId="4" r:id="rId6"/>
-    <sheet name="1.组件安装(ALPS)" sheetId="8" r:id="rId7"/>
-    <sheet name="1.组件安装(EMMA)" sheetId="11" r:id="rId8"/>
-    <sheet name="2.VB6.0安装" sheetId="5" r:id="rId9"/>
-    <sheet name="缺少组件和dll一览" sheetId="6" r:id="rId10"/>
-    <sheet name="编译" sheetId="10" r:id="rId11"/>
-    <sheet name="Others" sheetId="7" r:id="rId12"/>
-    <sheet name="Emma" sheetId="3" r:id="rId13"/>
-    <sheet name="E2XTRACT" sheetId="14" r:id="rId14"/>
-    <sheet name="ebtchstr" sheetId="15" r:id="rId15"/>
+    <sheet name="KT4" sheetId="16" r:id="rId6"/>
+    <sheet name="AIG doc" sheetId="4" r:id="rId7"/>
+    <sheet name="1.组件安装(ALPS)" sheetId="8" r:id="rId8"/>
+    <sheet name="1.组件安装(EMMA)" sheetId="11" r:id="rId9"/>
+    <sheet name="2.VB6.0安装" sheetId="5" r:id="rId10"/>
+    <sheet name="缺少组件和dll一览" sheetId="6" r:id="rId11"/>
+    <sheet name="编译" sheetId="10" r:id="rId12"/>
+    <sheet name="Others" sheetId="7" r:id="rId13"/>
+    <sheet name="Emma" sheetId="3" r:id="rId14"/>
+    <sheet name="E2XTRACT" sheetId="14" r:id="rId15"/>
+    <sheet name="ebtchstr" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="835">
   <si>
     <t>\\10.225.68.15\shares\1_AIG</t>
   </si>
@@ -2810,9 +2811,6 @@
     <t>Create Billing Tape</t>
   </si>
   <si>
-    <t>？</t>
-  </si>
-  <si>
     <t>Batch</t>
   </si>
   <si>
@@ -2906,6 +2904,75 @@
   </si>
   <si>
     <t>Catch Before Cover</t>
+  </si>
+  <si>
+    <t>Convert Reponse File</t>
+  </si>
+  <si>
+    <t>以下文档是老文档，仅供参考。</t>
+  </si>
+  <si>
+    <t>发盘数据例：</t>
+  </si>
+  <si>
+    <t>回盘数据例：</t>
+  </si>
+  <si>
+    <t>回盘页面</t>
+  </si>
+  <si>
+    <t>发盘页面</t>
+  </si>
+  <si>
+    <t>Rejection数据：</t>
+  </si>
+  <si>
+    <t>issuing branches</t>
+  </si>
+  <si>
+    <t>发行分行</t>
+  </si>
+  <si>
+    <t>peoples republic of china</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>1.Skip Back up, Skip Indexation</t>
+  </si>
+  <si>
+    <t>2.Billing Organization Rejection Mappings</t>
+  </si>
+  <si>
+    <t>3.Reject</t>
+  </si>
+  <si>
+    <t>billing tape</t>
+  </si>
+  <si>
+    <t>计费盘（发盘）</t>
+  </si>
+  <si>
+    <t>with intermediary</t>
+  </si>
+  <si>
+    <t>中间人</t>
+  </si>
+  <si>
+    <t>4.with intermediary</t>
+  </si>
+  <si>
+    <t>5.Stock Control</t>
+  </si>
+  <si>
+    <t>6.Quote</t>
+  </si>
+  <si>
+    <t>7. Preferences</t>
+  </si>
+  <si>
+    <t>8. Unlock Record</t>
   </si>
 </sst>
 </file>
@@ -3202,7 +3269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3295,6 +3362,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3428,6 +3496,597 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103924</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="6809524" cy="3285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590083</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>180667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="28575000"/>
+          <a:ext cx="3733333" cy="2466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="6104762" cy="5276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8762</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>132690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6096000"/>
+          <a:ext cx="6104762" cy="5276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161524</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="6858000"/>
+          <a:ext cx="3209524" cy="1771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75733</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="9144000"/>
+          <a:ext cx="3733333" cy="1809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46857</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>18405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12192000"/>
+          <a:ext cx="6142857" cy="5161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8762</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>132690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12001500"/>
+          <a:ext cx="6104762" cy="5276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>570514</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>37452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="18288000"/>
+          <a:ext cx="7885714" cy="5180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12468225" y="18630900"/>
+          <a:ext cx="2133600" cy="4962525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>332876</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>37881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="12763500"/>
+          <a:ext cx="3990476" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389486</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>9095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23812500"/>
+          <a:ext cx="8314286" cy="3438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="18992850"/>
+          <a:ext cx="5762625" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>446915</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="5323715" cy="5114348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3553,13 +4212,208 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370712</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="762000"/>
+          <a:ext cx="5352287" cy="5114348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370712</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>151740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6477000"/>
+          <a:ext cx="5352287" cy="5866740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342140</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>170871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12954000"/>
+          <a:ext cx="5323715" cy="5123871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>380269</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>18512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="762000"/>
+          <a:ext cx="5257069" cy="4781012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>551687</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>132690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18669000"/>
+          <a:ext cx="5533262" cy="5847690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>199314</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>18654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3591,13 +4445,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>8800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3629,13 +4483,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>63893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3667,13 +4521,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>83133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3705,13 +4559,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>474486</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3743,13 +4597,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>37033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3781,13 +4635,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>46693</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3819,13 +4673,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>198628</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>161366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3857,13 +4711,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3914,13 +4768,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>317</xdr:row>
+          <xdr:row>320</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>320</xdr:row>
+          <xdr:row>323</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3965,13 +4819,13 @@
         <xdr:from>
           <xdr:col>15</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>25</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4014,13 +4868,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4073,7 +4927,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4463,7 +5317,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4582,7 +5436,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5092,7 +5946,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5287,7 +6141,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5433,87 +6287,6 @@
         <a:xfrm>
           <a:off x="0" y="10668000"/>
           <a:ext cx="8076190" cy="3600000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>103924</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47214</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="6809524" cy="3285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>590083</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>180667</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7924800" y="28575000"/>
-          <a:ext cx="3733333" cy="2466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5823,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5861,7 +6634,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5879,7 +6652,7 @@
         <v>309</v>
       </c>
       <c r="E15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5915,7 +6688,7 @@
       <c r="D22" s="42"/>
       <c r="E22" s="42"/>
       <c r="F22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5930,20 +6703,20 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="43" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="24" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="44" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="29" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6097,6 +6870,126 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10">
+      <c r="J91" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R190"/>
   <sheetViews>
@@ -6990,6 +7883,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B18:E18"/>
@@ -7006,13 +7906,6 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7021,7 +7914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F97"/>
   <sheetViews>
@@ -7096,7 +7989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M40"/>
   <sheetViews>
@@ -7293,7 +8186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A22:U234"/>
   <sheetViews>
@@ -10850,11 +11743,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R182:S182"/>
-    <mergeCell ref="T182:U182"/>
-    <mergeCell ref="T183:U183"/>
-    <mergeCell ref="T184:U184"/>
-    <mergeCell ref="T185:U185"/>
+    <mergeCell ref="R193:S193"/>
+    <mergeCell ref="T193:U193"/>
+    <mergeCell ref="R194:S194"/>
+    <mergeCell ref="T194:U194"/>
+    <mergeCell ref="R195:S195"/>
+    <mergeCell ref="T195:U195"/>
+    <mergeCell ref="R190:S190"/>
+    <mergeCell ref="T190:U190"/>
+    <mergeCell ref="R191:S191"/>
+    <mergeCell ref="T191:U191"/>
+    <mergeCell ref="R192:S192"/>
+    <mergeCell ref="T192:U192"/>
     <mergeCell ref="T187:U187"/>
     <mergeCell ref="R183:S183"/>
     <mergeCell ref="R184:S184"/>
@@ -10862,18 +11762,11 @@
     <mergeCell ref="R186:S186"/>
     <mergeCell ref="R187:S187"/>
     <mergeCell ref="T186:U186"/>
-    <mergeCell ref="R190:S190"/>
-    <mergeCell ref="T190:U190"/>
-    <mergeCell ref="R191:S191"/>
-    <mergeCell ref="T191:U191"/>
-    <mergeCell ref="R192:S192"/>
-    <mergeCell ref="T192:U192"/>
-    <mergeCell ref="R193:S193"/>
-    <mergeCell ref="T193:U193"/>
-    <mergeCell ref="R194:S194"/>
-    <mergeCell ref="T194:U194"/>
-    <mergeCell ref="R195:S195"/>
-    <mergeCell ref="T195:U195"/>
+    <mergeCell ref="R182:S182"/>
+    <mergeCell ref="T182:U182"/>
+    <mergeCell ref="T183:U183"/>
+    <mergeCell ref="T184:U184"/>
+    <mergeCell ref="T185:U185"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10882,83 +11775,193 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A34:L125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="U132" sqref="U132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="34" spans="1:1">
+      <c r="A34" s="12" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="12" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" t="s">
+        <v>814</v>
+      </c>
+      <c r="L96" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>818</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B6"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="48" t="s">
         <v>787</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="48" t="s">
         <v>789</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="48" t="s">
         <v>791</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48" t="s">
         <v>792</v>
       </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="s">
+        <v>820</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="48" t="s">
+        <v>826</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48" t="s">
+        <v>827</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="48" t="s">
+        <v>828</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -12130,422 +13133,481 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="56">
+        <v>44155</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>834</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q326"/>
+  <sheetPr>
+    <tabColor theme="1" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:Q329"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="P316" sqref="P316"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="11:17">
-      <c r="K3" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="K6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="11:17">
-      <c r="K4" s="3" t="s">
+    <row r="7" spans="1:17">
+      <c r="K7" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="11:17">
-      <c r="K5" t="s">
+    <row r="8" spans="1:17">
+      <c r="K8" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="11:17">
-      <c r="K6" s="3" t="s">
+    <row r="9" spans="1:17">
+      <c r="K9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="11:17">
-      <c r="K7" s="3" t="s">
+    <row r="10" spans="1:17">
+      <c r="K10" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="11:17">
-      <c r="K8" t="s">
+    <row r="11" spans="1:17">
+      <c r="K11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="11:17">
-      <c r="K9" s="3" t="s">
+    <row r="12" spans="1:17">
+      <c r="K12" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="11:17">
-      <c r="K10" t="s">
+    <row r="13" spans="1:17">
+      <c r="K13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="11:17">
-      <c r="K11" s="3" t="s">
+    <row r="14" spans="1:17">
+      <c r="K14" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="11:17">
-      <c r="K12" t="s">
+    <row r="15" spans="1:17">
+      <c r="K15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="11:17">
-      <c r="K13" t="s">
+    <row r="16" spans="1:17">
+      <c r="K16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="11:17">
-      <c r="K14" t="s">
+    <row r="17" spans="11:11">
+      <c r="K17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="11:17">
-      <c r="K16" s="3" t="s">
+    <row r="19" spans="11:11">
+      <c r="K19" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="6" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="A75" t="s">
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
-      <c r="L77" s="16" t="s">
+    <row r="80" spans="1:12">
+      <c r="L80" s="16" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
-      <c r="A100" t="s">
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
-      <c r="L102" s="5" t="s">
+    <row r="105" spans="1:14">
+      <c r="L105" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5" t="s">
+      <c r="M105" s="5"/>
+      <c r="N105" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
-      <c r="L103" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5" t="s">
+    <row r="106" spans="1:14">
+      <c r="L106" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="B279" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="B280" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="B276" t="s">
+    <row r="281" spans="1:2">
+      <c r="B281" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="B277" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="B278" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
+    <row r="289" spans="1:15">
+      <c r="A289" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
+    <row r="291" spans="1:15">
+      <c r="A291" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
-      <c r="A290" t="s">
+    <row r="293" spans="1:15">
+      <c r="A293" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="292" spans="1:15">
-      <c r="A292" s="5" t="s">
+    <row r="295" spans="1:15">
+      <c r="A295" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B292" s="5"/>
-      <c r="C292" s="5"/>
-      <c r="D292" s="5"/>
-      <c r="E292" s="5"/>
-      <c r="F292" s="5"/>
-      <c r="G292" s="5"/>
-      <c r="H292" s="5"/>
-      <c r="I292" s="5"/>
-      <c r="J292" s="5"/>
-      <c r="K292" s="5"/>
-      <c r="L292" s="5"/>
-    </row>
-    <row r="294" spans="1:15">
-      <c r="A294" s="5" t="s">
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+      <c r="K295" s="5"/>
+      <c r="L295" s="5"/>
+    </row>
+    <row r="297" spans="1:15">
+      <c r="A297" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B294" s="5"/>
-      <c r="C294" s="5"/>
-      <c r="D294" s="5"/>
-      <c r="E294" s="5"/>
-    </row>
-    <row r="296" spans="1:15">
-      <c r="A296" s="5" t="s">
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+    </row>
+    <row r="299" spans="1:15">
+      <c r="A299" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B296" s="5"/>
-      <c r="C296" s="5"/>
-      <c r="D296" s="5"/>
-      <c r="E296" s="5"/>
-      <c r="F296" s="5"/>
-      <c r="G296" s="5"/>
-      <c r="H296" s="5"/>
-      <c r="I296" s="5"/>
-      <c r="J296" s="5"/>
-      <c r="K296" s="5"/>
-      <c r="L296" s="5"/>
-      <c r="M296" s="5"/>
-      <c r="N296" s="5"/>
-      <c r="O296" s="5"/>
-    </row>
-    <row r="298" spans="1:15">
-      <c r="A298" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B298" s="5"/>
-      <c r="C298" s="5"/>
-      <c r="D298" s="5"/>
-      <c r="E298" s="5"/>
-      <c r="F298" s="5"/>
-      <c r="G298" s="5"/>
-      <c r="H298" s="5"/>
-    </row>
-    <row r="299" spans="1:15">
-      <c r="A299" s="16"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
@@ -12553,130 +13615,159 @@
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
-    </row>
-    <row r="300" spans="1:15">
-      <c r="A300" s="16" t="s">
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="5"/>
+      <c r="M299" s="5"/>
+      <c r="N299" s="5"/>
+      <c r="O299" s="5"/>
+    </row>
+    <row r="301" spans="1:15">
+      <c r="A301" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B301" s="5"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+    </row>
+    <row r="302" spans="1:15">
+      <c r="A302" s="16"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+    </row>
+    <row r="303" spans="1:15">
+      <c r="A303" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B300" s="5"/>
-      <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
-      <c r="E300" s="5"/>
-      <c r="F300" s="5"/>
-      <c r="G300" s="5"/>
-      <c r="H300" s="5"/>
-    </row>
-    <row r="302" spans="1:15">
-      <c r="A302" t="s">
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
-      <c r="A306" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
-      <c r="A308" t="s">
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="s">
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
-      <c r="A312" t="s">
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="5"/>
-      <c r="B318" s="5"/>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B319" s="5"/>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="5"/>
-      <c r="B320" s="5"/>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
     </row>
+    <row r="322" spans="1:9">
+      <c r="A322" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B322" s="5"/>
+    </row>
     <row r="323" spans="1:9">
-      <c r="D323" s="5"/>
-      <c r="E323" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="F323" s="47"/>
-      <c r="G323" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="H323" s="47"/>
-      <c r="I323" s="47"/>
+      <c r="A323" s="5"/>
+      <c r="B323" s="5"/>
     </row>
     <row r="324" spans="1:9">
-      <c r="D324" s="5"/>
-      <c r="E324" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F324" s="50"/>
-      <c r="G324" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H324" s="48"/>
-      <c r="I324" s="48"/>
-    </row>
-    <row r="325" spans="1:9">
-      <c r="D325" s="5"/>
-      <c r="E325" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F325" s="51"/>
-      <c r="G325" s="49" t="s">
-        <v>812</v>
-      </c>
-      <c r="H325" s="49"/>
-      <c r="I325" s="49"/>
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
     </row>
     <row r="326" spans="1:9">
       <c r="D326" s="5"/>
-      <c r="E326" s="50" t="s">
+      <c r="E326" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F326" s="47"/>
+      <c r="G326" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="H326" s="47"/>
+      <c r="I326" s="47"/>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="D327" s="5"/>
+      <c r="E327" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F327" s="50"/>
+      <c r="G327" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H327" s="48"/>
+      <c r="I327" s="48"/>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="D328" s="5"/>
+      <c r="E328" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F328" s="51"/>
+      <c r="G328" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="H328" s="49"/>
+      <c r="I328" s="49"/>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="D329" s="5"/>
+      <c r="E329" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="F326" s="50"/>
-      <c r="G326" s="48" t="s">
+      <c r="F329" s="50"/>
+      <c r="G329" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="H326" s="48"/>
-      <c r="I326" s="48"/>
+      <c r="H329" s="48"/>
+      <c r="I329" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G323:I323"/>
-    <mergeCell ref="G324:I324"/>
-    <mergeCell ref="G325:I325"/>
     <mergeCell ref="G326:I326"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="E324:F324"/>
-    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="G327:I327"/>
+    <mergeCell ref="G328:I328"/>
+    <mergeCell ref="G329:I329"/>
     <mergeCell ref="E326:F326"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="E329:F329"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12692,13 +13783,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>317</xdr:row>
+                <xdr:row>320</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>320</xdr:row>
+                <xdr:row>323</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
@@ -12717,13 +13808,13 @@
               <from>
                 <xdr:col>15</xdr:col>
                 <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>25</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
@@ -12738,7 +13829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P263"/>
   <sheetViews>
@@ -13935,12 +15026,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
@@ -13948,6 +15033,12 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13956,7 +15047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O42"/>
   <sheetViews>
@@ -14106,124 +15197,4 @@
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L91"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="91" spans="10:10">
-      <c r="J91" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Emma2.xlsx
+++ b/Emma2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="903" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="903" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="path" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="843">
   <si>
     <t>\\10.225.68.15\shares\1_AIG</t>
   </si>
@@ -2974,12 +2974,36 @@
   <si>
     <t>8. Unlock Record</t>
   </si>
+  <si>
+    <t>需要先安装Sybase12.5Client</t>
+  </si>
+  <si>
+    <t>1.安装Office 2010 32位</t>
+  </si>
+  <si>
+    <t>2.安装Sybase12.5Client</t>
+  </si>
+  <si>
+    <t>3.安装第三方sombrero程序</t>
+  </si>
+  <si>
+    <t>可能需要结束ODBC Driver Configuragtion Program进程</t>
+  </si>
+  <si>
+    <t>页面</t>
+  </si>
+  <si>
+    <t>(一笔)交易</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3053,6 +3077,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3269,7 +3301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3335,11 +3367,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3362,7 +3395,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5360,15 +5393,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>66133</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104643</xdr:rowOff>
+      <xdr:colOff>294733</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5385,7 +5418,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="3238500"/>
+          <a:off x="8763000" y="4314825"/>
           <a:ext cx="4333333" cy="1057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5397,16 +5430,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>428024</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171245</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47024</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104570</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5423,8 +5456,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="1390650"/>
+          <a:off x="8648700" y="2466975"/>
           <a:ext cx="4809524" cy="1638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542574</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>113915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="85725"/>
+          <a:ext cx="2809524" cy="3076190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7008,12 +7079,12 @@
       <c r="A3" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="14">
@@ -7041,111 +7112,111 @@
       <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="53" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="53" t="s">
         <v>432</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="53" t="s">
         <v>423</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="53" t="s">
         <v>426</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="53" t="s">
         <v>424</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20"/>
@@ -7163,12 +7234,12 @@
       <c r="A18" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8">
@@ -7883,13 +7954,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B15:E15"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B18:E18"/>
@@ -7906,6 +7970,13 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10883,10 +10954,10 @@
         <v>739</v>
       </c>
       <c r="S183" s="48"/>
-      <c r="T183" s="49" t="s">
+      <c r="T183" s="50" t="s">
         <v>736</v>
       </c>
-      <c r="U183" s="49"/>
+      <c r="U183" s="50"/>
     </row>
     <row r="184" spans="1:21">
       <c r="A184" s="25" t="s">
@@ -10995,10 +11066,10 @@
         <v>744</v>
       </c>
       <c r="S187" s="48"/>
-      <c r="T187" s="49" t="s">
+      <c r="T187" s="50" t="s">
         <v>716</v>
       </c>
-      <c r="U187" s="49"/>
+      <c r="U187" s="50"/>
     </row>
     <row r="188" spans="1:21">
       <c r="A188" s="25" t="s">
@@ -11092,10 +11163,10 @@
         <v>739</v>
       </c>
       <c r="S191" s="48"/>
-      <c r="T191" s="49" t="s">
+      <c r="T191" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="U191" s="49"/>
+      <c r="U191" s="50"/>
     </row>
     <row r="192" spans="1:21">
       <c r="A192" s="25" t="s">
@@ -11186,10 +11257,10 @@
         <v>744</v>
       </c>
       <c r="S195" s="48"/>
-      <c r="T195" s="49" t="s">
+      <c r="T195" s="50" t="s">
         <v>716</v>
       </c>
-      <c r="U195" s="49"/>
+      <c r="U195" s="50"/>
     </row>
     <row r="197" spans="1:21">
       <c r="A197" s="12" t="s">
@@ -11743,18 +11814,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R193:S193"/>
-    <mergeCell ref="T193:U193"/>
-    <mergeCell ref="R194:S194"/>
-    <mergeCell ref="T194:U194"/>
-    <mergeCell ref="R195:S195"/>
-    <mergeCell ref="T195:U195"/>
-    <mergeCell ref="R190:S190"/>
-    <mergeCell ref="T190:U190"/>
-    <mergeCell ref="R191:S191"/>
-    <mergeCell ref="T191:U191"/>
-    <mergeCell ref="R192:S192"/>
-    <mergeCell ref="T192:U192"/>
+    <mergeCell ref="R182:S182"/>
+    <mergeCell ref="T182:U182"/>
+    <mergeCell ref="T183:U183"/>
+    <mergeCell ref="T184:U184"/>
+    <mergeCell ref="T185:U185"/>
     <mergeCell ref="T187:U187"/>
     <mergeCell ref="R183:S183"/>
     <mergeCell ref="R184:S184"/>
@@ -11762,11 +11826,18 @@
     <mergeCell ref="R186:S186"/>
     <mergeCell ref="R187:S187"/>
     <mergeCell ref="T186:U186"/>
-    <mergeCell ref="R182:S182"/>
-    <mergeCell ref="T182:U182"/>
-    <mergeCell ref="T183:U183"/>
-    <mergeCell ref="T184:U184"/>
-    <mergeCell ref="T185:U185"/>
+    <mergeCell ref="R190:S190"/>
+    <mergeCell ref="T190:U190"/>
+    <mergeCell ref="R191:S191"/>
+    <mergeCell ref="T191:U191"/>
+    <mergeCell ref="R192:S192"/>
+    <mergeCell ref="T192:U192"/>
+    <mergeCell ref="R193:S193"/>
+    <mergeCell ref="T193:U193"/>
+    <mergeCell ref="R194:S194"/>
+    <mergeCell ref="T194:U194"/>
+    <mergeCell ref="R195:S195"/>
+    <mergeCell ref="T195:U195"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11777,14 +11848,35 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A34:L125"/>
+  <dimension ref="A2:Q125"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="U132" sqref="U132"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149:Q149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
     <row r="34" spans="1:1">
       <c r="A34" s="12" t="s">
         <v>817</v>
@@ -11839,10 +11931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I8"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11945,22 +12037,38 @@
       <c r="H8" s="48"/>
       <c r="I8" s="48"/>
     </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48" t="s">
+        <v>841</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -13136,8 +13244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13146,7 +13254,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="56">
+      <c r="A2" s="47">
         <v>44155</v>
       </c>
       <c r="B2" s="16"/>
@@ -13712,22 +13820,22 @@
     </row>
     <row r="326" spans="1:9">
       <c r="D326" s="5"/>
-      <c r="E326" s="47" t="s">
+      <c r="E326" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="F326" s="47"/>
-      <c r="G326" s="47" t="s">
+      <c r="F326" s="49"/>
+      <c r="G326" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="H326" s="47"/>
-      <c r="I326" s="47"/>
+      <c r="H326" s="49"/>
+      <c r="I326" s="49"/>
     </row>
     <row r="327" spans="1:9">
       <c r="D327" s="5"/>
-      <c r="E327" s="50" t="s">
+      <c r="E327" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F327" s="50"/>
+      <c r="F327" s="51"/>
       <c r="G327" s="48" t="s">
         <v>9</v>
       </c>
@@ -13736,22 +13844,22 @@
     </row>
     <row r="328" spans="1:9">
       <c r="D328" s="5"/>
-      <c r="E328" s="51" t="s">
+      <c r="E328" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="F328" s="51"/>
-      <c r="G328" s="49" t="s">
+      <c r="F328" s="52"/>
+      <c r="G328" s="50" t="s">
         <v>811</v>
       </c>
-      <c r="H328" s="49"/>
-      <c r="I328" s="49"/>
+      <c r="H328" s="50"/>
+      <c r="I328" s="50"/>
     </row>
     <row r="329" spans="1:9">
       <c r="D329" s="5"/>
-      <c r="E329" s="50" t="s">
+      <c r="E329" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="F329" s="50"/>
+      <c r="F329" s="51"/>
       <c r="G329" s="48" t="s">
         <v>160</v>
       </c>
@@ -13856,12 +13964,12 @@
       <c r="A5" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14">
@@ -13895,12 +14003,12 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="F8" t="s">
         <v>300</v>
       </c>
@@ -13909,12 +14017,12 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="F9" t="s">
         <v>440</v>
       </c>
@@ -13923,12 +14031,12 @@
       <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
       <c r="F10" t="s">
         <v>441</v>
       </c>
@@ -13937,12 +14045,12 @@
       <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="53" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" t="s">
         <v>300</v>
       </c>
@@ -13951,12 +14059,12 @@
       <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="53" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
       <c r="F12" t="s">
         <v>300</v>
       </c>
@@ -13965,12 +14073,12 @@
       <c r="A13" s="14">
         <v>8</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
       <c r="F13" t="s">
         <v>442</v>
       </c>
@@ -13979,12 +14087,12 @@
       <c r="A14" s="14">
         <v>9</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="53" t="s">
         <v>517</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
       <c r="F14" t="s">
         <v>518</v>
       </c>
@@ -13993,34 +14101,34 @@
       <c r="A15" s="14">
         <v>10</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="53" t="s">
         <v>519</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>11</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="53" t="s">
         <v>520</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="14">
         <v>12</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="53" t="s">
         <v>521</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="20"/>
@@ -15026,6 +15134,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
@@ -15033,12 +15147,6 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15049,10 +15157,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O42"/>
+  <dimension ref="A2:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15066,120 +15174,118 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" t="s">
+      <c r="A20" s="57" t="s">
         <v>535</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57" t="s">
         <v>532</v>
       </c>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="7" t="s">
         <v>554</v>
       </c>
     </row>
+    <row r="21" spans="1:15">
+      <c r="G21" s="7"/>
+    </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>533</v>
-      </c>
-      <c r="C22" t="s">
-        <v>534</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>536</v>
-      </c>
-      <c r="C24" t="s">
-        <v>534</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>537</v>
-      </c>
-      <c r="C26" t="s">
-        <v>538</v>
-      </c>
-      <c r="O26" t="s">
-        <v>548</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="G26" s="7"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C28" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="O29" t="s">
-        <v>266</v>
+        <v>534</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C30" t="s">
-        <v>300</v>
-      </c>
-      <c r="O30" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="O31" t="s">
-        <v>266</v>
+        <v>534</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C32" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="O32" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="B34" t="s">
-        <v>266</v>
+      <c r="A34" t="s">
+        <v>539</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="B35" t="s">
-        <v>542</v>
-      </c>
       <c r="O35" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="B36" t="s">
-        <v>266</v>
+      <c r="A36" t="s">
+        <v>540</v>
+      </c>
+      <c r="C36" t="s">
+        <v>300</v>
       </c>
       <c r="O36" t="s">
-        <v>335</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="B37" t="s">
-        <v>543</v>
-      </c>
       <c r="O37" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="B38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="B39" t="s">
-        <v>335</v>
+      <c r="A38" t="s">
+        <v>541</v>
+      </c>
+      <c r="C38" t="s">
+        <v>544</v>
+      </c>
+      <c r="O38" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -15187,8 +15293,47 @@
         <v>266</v>
       </c>
     </row>
+    <row r="41" spans="1:15">
+      <c r="B41" t="s">
+        <v>542</v>
+      </c>
+      <c r="O41" t="s">
+        <v>266</v>
+      </c>
+    </row>
     <row r="42" spans="1:15">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>266</v>
+      </c>
+      <c r="O42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="B43" t="s">
+        <v>543</v>
+      </c>
+      <c r="O43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="B44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="B45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="B46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" t="s">
         <v>545</v>
       </c>
     </row>

--- a/Emma2.xlsx
+++ b/Emma2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="903" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="903"/>
   </bookViews>
   <sheets>
     <sheet name="path" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="856">
   <si>
     <t>\\10.225.68.15\shares\1_AIG</t>
   </si>
@@ -2997,6 +2997,45 @@
   </si>
   <si>
     <t>Transaction</t>
+  </si>
+  <si>
+    <t>10.127.79.55</t>
+  </si>
+  <si>
+    <t>10.127.79.57</t>
+  </si>
+  <si>
+    <t>.\AIGL3</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>虚拟机</t>
+  </si>
+  <si>
+    <t>虚拟机开启复制粘贴功能</t>
+  </si>
+  <si>
+    <t>HKEY_LOCAL_MACHINE\SOFTWARE\Policies\Microsoft\Windows NT\Terminal Services</t>
+  </si>
+  <si>
+    <t>1.修改注册表</t>
+  </si>
+  <si>
+    <t>fDisableClip</t>
+  </si>
+  <si>
+    <t>fDisableCcm</t>
+  </si>
+  <si>
+    <t>fDisableCdm</t>
+  </si>
+  <si>
+    <t>2.重启Remote服务</t>
+  </si>
+  <si>
+    <t>Remote Desktop Services</t>
   </si>
 </sst>
 </file>
@@ -3301,7 +3340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3349,12 +3388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3363,11 +3396,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3395,7 +3427,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6665,10 +6712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G59"/>
+  <dimension ref="A2:K84"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6740,24 +6787,24 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
       <c r="F22" t="s">
         <v>805</v>
       </c>
@@ -6773,159 +6820,514 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="52" t="s">
         <v>806</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="55" t="s">
         <v>807</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57" t="s">
         <v>808</v>
       </c>
     </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="A32" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>808</v>
+      </c>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="25"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="D36" s="29"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="25"/>
+      <c r="B41" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="25"/>
+      <c r="B42" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="30"/>
+      <c r="B43" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28">
+        <v>0</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="63" t="s">
+        <v>855</v>
+      </c>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="65"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="B33" t="s">
+    <row r="49" spans="2:7">
+      <c r="B49" t="s">
         <v>378</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E49" t="s">
         <v>379</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G49" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="B34" t="s">
+    <row r="50" spans="2:7">
+      <c r="B50" t="s">
         <v>381</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E50" t="s">
         <v>382</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G50" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="C37" s="18" t="s">
+    <row r="53" spans="2:7">
+      <c r="C53" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D53" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="C38" s="18" t="s">
+    <row r="54" spans="2:7">
+      <c r="C54" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D54" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
+    <row r="55" spans="2:7">
+      <c r="C55" s="18"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="C56" s="18"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="C57" s="18"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="C58" s="18"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="C59" s="18"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="C60" s="18"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="C61" s="18"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="C62" s="18"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="C63" s="18"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="13" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="B42">
+      <c r="B67" s="13">
         <v>4011455</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="13" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A45" s="7" t="s">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A70" s="58" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="32" t="s">
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A71" s="59" t="s">
         <v>555</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B74" s="13"/>
+      <c r="C74" s="13" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75">
-      <c r="A51" s="31" t="s">
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75">
+      <c r="A76" s="62" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75">
-      <c r="A52" s="31" t="s">
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75">
+      <c r="A77" s="62" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75">
-      <c r="A53" s="31" t="s">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75">
+      <c r="A78" s="62" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75">
-      <c r="A54" s="31" t="s">
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75">
+      <c r="A79" s="62" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75">
-      <c r="A55" s="31" t="s">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75">
+      <c r="A80" s="62" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75">
-      <c r="A56" s="31" t="s">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75">
+      <c r="A81" s="62" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75">
-      <c r="A57" s="31" t="s">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75">
+      <c r="A82" s="62" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75">
-      <c r="A58" s="31" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75">
+      <c r="A83" s="62" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75">
-      <c r="A59" s="31" t="s">
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75">
+      <c r="A84" s="62" t="s">
         <v>565</v>
       </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -6933,7 +7335,7 @@
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
     <hyperlink ref="A9" r:id="rId3"/>
-    <hyperlink ref="A46" r:id="rId4"/>
+    <hyperlink ref="A71" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -7079,144 +7481,144 @@
       <c r="A3" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="48" t="s">
         <v>432</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="48" t="s">
         <v>433</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20"/>
@@ -7234,100 +7636,100 @@
       <c r="A18" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>1</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8">
         <v>3</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8">
         <v>4</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8">
         <v>5</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8">
         <v>6</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8">
         <v>7</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="14">
         <v>8</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="43" t="s">
         <v>439</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
@@ -7335,12 +7737,12 @@
       <c r="A27" s="14">
         <v>9</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="43" t="s">
         <v>525</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
@@ -7954,6 +8356,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B18:E18"/>
@@ -7970,13 +8379,6 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8305,15 +8707,15 @@
       <c r="O25" s="24"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="36" t="s">
         <v>625</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -8381,7 +8783,7 @@
       <c r="O29" s="26"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="31" t="s">
         <v>627</v>
       </c>
       <c r="B30" s="10"/>
@@ -8400,7 +8802,7 @@
       <c r="O30" s="26"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="31" t="s">
         <v>628</v>
       </c>
       <c r="B31" s="10"/>
@@ -8419,7 +8821,7 @@
       <c r="O31" s="26"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="31" t="s">
         <v>629</v>
       </c>
       <c r="B32" s="10"/>
@@ -8438,7 +8840,7 @@
       <c r="O32" s="26"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="31" t="s">
         <v>630</v>
       </c>
       <c r="B33" s="10"/>
@@ -8457,7 +8859,7 @@
       <c r="O33" s="26"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="31" t="s">
         <v>631</v>
       </c>
       <c r="B34" s="10"/>
@@ -8571,7 +8973,7 @@
       <c r="O39" s="26"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="31" t="s">
         <v>637</v>
       </c>
       <c r="B40" s="10"/>
@@ -9587,11 +9989,11 @@
       <c r="L94" s="26"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
@@ -9889,7 +10291,7 @@
       <c r="L113" s="26"/>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="35" t="s">
+      <c r="A114" s="31" t="s">
         <v>596</v>
       </c>
       <c r="B114" s="10"/>
@@ -9905,7 +10307,7 @@
       <c r="L114" s="26"/>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="31" t="s">
         <v>597</v>
       </c>
       <c r="B115" s="10"/>
@@ -9921,7 +10323,7 @@
       <c r="L115" s="26"/>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="35" t="s">
+      <c r="A116" s="31" t="s">
         <v>598</v>
       </c>
       <c r="B116" s="10"/>
@@ -9937,7 +10339,7 @@
       <c r="L116" s="26"/>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="35" t="s">
+      <c r="A117" s="31" t="s">
         <v>599</v>
       </c>
       <c r="B117" s="10"/>
@@ -9953,7 +10355,7 @@
       <c r="L117" s="26"/>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="31" t="s">
         <v>600</v>
       </c>
       <c r="B118" s="10"/>
@@ -9969,7 +10371,7 @@
       <c r="L118" s="26"/>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="35" t="s">
+      <c r="A119" s="31" t="s">
         <v>601</v>
       </c>
       <c r="B119" s="10"/>
@@ -9985,7 +10387,7 @@
       <c r="L119" s="26"/>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="35" t="s">
+      <c r="A120" s="31" t="s">
         <v>602</v>
       </c>
       <c r="B120" s="10"/>
@@ -10001,7 +10403,7 @@
       <c r="L120" s="26"/>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="35" t="s">
+      <c r="A121" s="31" t="s">
         <v>603</v>
       </c>
       <c r="B121" s="10"/>
@@ -10438,7 +10840,7 @@
       <c r="L150" s="26"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="35" t="s">
+      <c r="A151" s="31" t="s">
         <v>693</v>
       </c>
       <c r="B151" s="10"/>
@@ -10543,7 +10945,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
-      <c r="H157" s="36" t="s">
+      <c r="H157" s="32" t="s">
         <v>717</v>
       </c>
       <c r="I157" s="10"/>
@@ -10561,7 +10963,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="36" t="s">
+      <c r="H158" s="32" t="s">
         <v>718</v>
       </c>
       <c r="I158" s="10"/>
@@ -10627,7 +11029,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
-      <c r="H162" s="36" t="s">
+      <c r="H162" s="32" t="s">
         <v>719</v>
       </c>
       <c r="I162" s="10"/>
@@ -10636,11 +11038,11 @@
       <c r="L162" s="26"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="40" t="s">
+      <c r="A163" s="36" t="s">
         <v>704</v>
       </c>
-      <c r="B163" s="38"/>
-      <c r="C163" s="39"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="35"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
@@ -10716,11 +11118,11 @@
       <c r="L167" s="26"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="40" t="s">
+      <c r="A168" s="36" t="s">
         <v>709</v>
       </c>
-      <c r="B168" s="39"/>
-      <c r="C168" s="39"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="35"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
@@ -10780,11 +11182,11 @@
       <c r="L171" s="26"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="40" t="s">
+      <c r="A172" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="35"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
@@ -10918,18 +11320,18 @@
       <c r="J182" s="23"/>
       <c r="K182" s="23"/>
       <c r="L182" s="23"/>
-      <c r="M182" s="37"/>
+      <c r="M182" s="33"/>
       <c r="N182" s="23"/>
       <c r="O182" s="23"/>
       <c r="P182" s="24"/>
-      <c r="R182" s="48" t="s">
+      <c r="R182" s="43" t="s">
         <v>738</v>
       </c>
-      <c r="S182" s="48"/>
-      <c r="T182" s="48" t="s">
+      <c r="S182" s="43"/>
+      <c r="T182" s="43" t="s">
         <v>737</v>
       </c>
-      <c r="U182" s="48"/>
+      <c r="U182" s="43"/>
     </row>
     <row r="183" spans="1:21">
       <c r="A183" s="25" t="s">
@@ -10950,14 +11352,14 @@
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
       <c r="P183" s="26"/>
-      <c r="R183" s="48" t="s">
+      <c r="R183" s="43" t="s">
         <v>739</v>
       </c>
-      <c r="S183" s="48"/>
-      <c r="T183" s="50" t="s">
+      <c r="S183" s="43"/>
+      <c r="T183" s="45" t="s">
         <v>736</v>
       </c>
-      <c r="U183" s="50"/>
+      <c r="U183" s="45"/>
     </row>
     <row r="184" spans="1:21">
       <c r="A184" s="25" t="s">
@@ -10978,14 +11380,14 @@
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="26"/>
-      <c r="R184" s="48" t="s">
+      <c r="R184" s="43" t="s">
         <v>740</v>
       </c>
-      <c r="S184" s="48"/>
-      <c r="T184" s="48" t="s">
+      <c r="S184" s="43"/>
+      <c r="T184" s="43" t="s">
         <v>741</v>
       </c>
-      <c r="U184" s="48"/>
+      <c r="U184" s="43"/>
     </row>
     <row r="185" spans="1:21">
       <c r="A185" s="25" t="s">
@@ -11006,14 +11408,14 @@
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
       <c r="P185" s="26"/>
-      <c r="R185" s="48" t="s">
+      <c r="R185" s="43" t="s">
         <v>742</v>
       </c>
-      <c r="S185" s="48"/>
-      <c r="T185" s="48" t="s">
+      <c r="S185" s="43"/>
+      <c r="T185" s="43" t="s">
         <v>743</v>
       </c>
-      <c r="U185" s="48"/>
+      <c r="U185" s="43"/>
     </row>
     <row r="186" spans="1:21">
       <c r="A186" s="25" t="s">
@@ -11034,14 +11436,14 @@
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="26"/>
-      <c r="R186" s="48" t="s">
+      <c r="R186" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="S186" s="48"/>
-      <c r="T186" s="48">
+      <c r="S186" s="43"/>
+      <c r="T186" s="43">
         <v>32</v>
       </c>
-      <c r="U186" s="48"/>
+      <c r="U186" s="43"/>
     </row>
     <row r="187" spans="1:21">
       <c r="A187" s="25" t="s">
@@ -11062,14 +11464,14 @@
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
       <c r="P187" s="26"/>
-      <c r="R187" s="48" t="s">
+      <c r="R187" s="43" t="s">
         <v>744</v>
       </c>
-      <c r="S187" s="48"/>
-      <c r="T187" s="50" t="s">
+      <c r="S187" s="43"/>
+      <c r="T187" s="45" t="s">
         <v>716</v>
       </c>
-      <c r="U187" s="50"/>
+      <c r="U187" s="45"/>
     </row>
     <row r="188" spans="1:21">
       <c r="A188" s="25" t="s">
@@ -11131,14 +11533,14 @@
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
       <c r="P190" s="26"/>
-      <c r="R190" s="48" t="s">
+      <c r="R190" s="43" t="s">
         <v>738</v>
       </c>
-      <c r="S190" s="48"/>
-      <c r="T190" s="48" t="s">
+      <c r="S190" s="43"/>
+      <c r="T190" s="43" t="s">
         <v>737</v>
       </c>
-      <c r="U190" s="48"/>
+      <c r="U190" s="43"/>
     </row>
     <row r="191" spans="1:21">
       <c r="A191" s="25" t="s">
@@ -11159,14 +11561,14 @@
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
       <c r="P191" s="26"/>
-      <c r="R191" s="48" t="s">
+      <c r="R191" s="43" t="s">
         <v>739</v>
       </c>
-      <c r="S191" s="48"/>
-      <c r="T191" s="50" t="s">
+      <c r="S191" s="43"/>
+      <c r="T191" s="45" t="s">
         <v>751</v>
       </c>
-      <c r="U191" s="50"/>
+      <c r="U191" s="45"/>
     </row>
     <row r="192" spans="1:21">
       <c r="A192" s="25" t="s">
@@ -11187,14 +11589,14 @@
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
       <c r="P192" s="26"/>
-      <c r="R192" s="48" t="s">
+      <c r="R192" s="43" t="s">
         <v>740</v>
       </c>
-      <c r="S192" s="48"/>
-      <c r="T192" s="48" t="s">
+      <c r="S192" s="43"/>
+      <c r="T192" s="43" t="s">
         <v>741</v>
       </c>
-      <c r="U192" s="48"/>
+      <c r="U192" s="43"/>
     </row>
     <row r="193" spans="1:21">
       <c r="A193" s="25" t="s">
@@ -11215,14 +11617,14 @@
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
       <c r="P193" s="26"/>
-      <c r="R193" s="48" t="s">
+      <c r="R193" s="43" t="s">
         <v>742</v>
       </c>
-      <c r="S193" s="48"/>
-      <c r="T193" s="48" t="s">
+      <c r="S193" s="43"/>
+      <c r="T193" s="43" t="s">
         <v>752</v>
       </c>
-      <c r="U193" s="48"/>
+      <c r="U193" s="43"/>
     </row>
     <row r="194" spans="1:21">
       <c r="A194" s="30" t="s">
@@ -11243,24 +11645,24 @@
       <c r="N194" s="28"/>
       <c r="O194" s="28"/>
       <c r="P194" s="29"/>
-      <c r="R194" s="48" t="s">
+      <c r="R194" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="S194" s="48"/>
-      <c r="T194" s="48">
+      <c r="S194" s="43"/>
+      <c r="T194" s="43">
         <v>32</v>
       </c>
-      <c r="U194" s="48"/>
+      <c r="U194" s="43"/>
     </row>
     <row r="195" spans="1:21">
-      <c r="R195" s="48" t="s">
+      <c r="R195" s="43" t="s">
         <v>744</v>
       </c>
-      <c r="S195" s="48"/>
-      <c r="T195" s="50" t="s">
+      <c r="S195" s="43"/>
+      <c r="T195" s="45" t="s">
         <v>716</v>
       </c>
-      <c r="U195" s="50"/>
+      <c r="U195" s="45"/>
     </row>
     <row r="197" spans="1:21">
       <c r="A197" s="12" t="s">
@@ -11284,11 +11686,11 @@
     </row>
     <row r="199" spans="1:21">
       <c r="A199" s="25"/>
-      <c r="B199" s="45" t="s">
+      <c r="B199" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="C199" s="46"/>
-      <c r="D199" s="46"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="40"/>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
@@ -11299,11 +11701,11 @@
     </row>
     <row r="200" spans="1:21">
       <c r="A200" s="25"/>
-      <c r="B200" s="45" t="s">
+      <c r="B200" s="39" t="s">
         <v>754</v>
       </c>
-      <c r="C200" s="46"/>
-      <c r="D200" s="46"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="40"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
@@ -11314,7 +11716,7 @@
     </row>
     <row r="201" spans="1:21">
       <c r="A201" s="25"/>
-      <c r="B201" s="39"/>
+      <c r="B201" s="35"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
       <c r="E201" s="10"/>
@@ -11327,7 +11729,7 @@
     </row>
     <row r="202" spans="1:21">
       <c r="A202" s="25"/>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="34" t="s">
         <v>755</v>
       </c>
       <c r="C202" s="10"/>
@@ -11342,7 +11744,7 @@
     </row>
     <row r="203" spans="1:21">
       <c r="A203" s="25"/>
-      <c r="B203" s="38" t="s">
+      <c r="B203" s="34" t="s">
         <v>756</v>
       </c>
       <c r="C203" s="10"/>
@@ -11357,7 +11759,7 @@
     </row>
     <row r="204" spans="1:21">
       <c r="A204" s="25"/>
-      <c r="B204" s="38" t="s">
+      <c r="B204" s="34" t="s">
         <v>757</v>
       </c>
       <c r="C204" s="10"/>
@@ -11372,7 +11774,7 @@
     </row>
     <row r="205" spans="1:21">
       <c r="A205" s="25"/>
-      <c r="B205" s="38" t="s">
+      <c r="B205" s="34" t="s">
         <v>758</v>
       </c>
       <c r="C205" s="10"/>
@@ -11814,11 +12216,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R182:S182"/>
-    <mergeCell ref="T182:U182"/>
-    <mergeCell ref="T183:U183"/>
-    <mergeCell ref="T184:U184"/>
-    <mergeCell ref="T185:U185"/>
+    <mergeCell ref="R193:S193"/>
+    <mergeCell ref="T193:U193"/>
+    <mergeCell ref="R194:S194"/>
+    <mergeCell ref="T194:U194"/>
+    <mergeCell ref="R195:S195"/>
+    <mergeCell ref="T195:U195"/>
+    <mergeCell ref="R190:S190"/>
+    <mergeCell ref="T190:U190"/>
+    <mergeCell ref="R191:S191"/>
+    <mergeCell ref="T191:U191"/>
+    <mergeCell ref="R192:S192"/>
+    <mergeCell ref="T192:U192"/>
     <mergeCell ref="T187:U187"/>
     <mergeCell ref="R183:S183"/>
     <mergeCell ref="R184:S184"/>
@@ -11826,18 +12235,11 @@
     <mergeCell ref="R186:S186"/>
     <mergeCell ref="R187:S187"/>
     <mergeCell ref="T186:U186"/>
-    <mergeCell ref="R190:S190"/>
-    <mergeCell ref="T190:U190"/>
-    <mergeCell ref="R191:S191"/>
-    <mergeCell ref="T191:U191"/>
-    <mergeCell ref="R192:S192"/>
-    <mergeCell ref="T192:U192"/>
-    <mergeCell ref="R193:S193"/>
-    <mergeCell ref="T193:U193"/>
-    <mergeCell ref="R194:S194"/>
-    <mergeCell ref="T194:U194"/>
-    <mergeCell ref="R195:S195"/>
-    <mergeCell ref="T195:U195"/>
+    <mergeCell ref="R182:S182"/>
+    <mergeCell ref="T182:U182"/>
+    <mergeCell ref="T183:U183"/>
+    <mergeCell ref="T184:U184"/>
+    <mergeCell ref="T185:U185"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11933,123 +12335,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="43" t="s">
         <v>787</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>788</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>789</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43" t="s">
         <v>790</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>791</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="s">
         <v>792</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>819</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43" t="s">
         <v>820</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>821</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43" t="s">
         <v>822</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>826</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
         <v>827</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="43" t="s">
         <v>828</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
         <v>829</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="43" t="s">
         <v>842</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43" t="s">
         <v>841</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -13254,7 +13656,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="47">
+      <c r="A2" s="41">
         <v>44155</v>
       </c>
       <c r="B2" s="16"/>
@@ -13820,51 +14222,51 @@
     </row>
     <row r="326" spans="1:9">
       <c r="D326" s="5"/>
-      <c r="E326" s="49" t="s">
+      <c r="E326" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F326" s="49"/>
-      <c r="G326" s="49" t="s">
+      <c r="F326" s="44"/>
+      <c r="G326" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="H326" s="49"/>
-      <c r="I326" s="49"/>
+      <c r="H326" s="44"/>
+      <c r="I326" s="44"/>
     </row>
     <row r="327" spans="1:9">
       <c r="D327" s="5"/>
-      <c r="E327" s="51" t="s">
+      <c r="E327" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F327" s="51"/>
-      <c r="G327" s="48" t="s">
+      <c r="F327" s="46"/>
+      <c r="G327" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H327" s="48"/>
-      <c r="I327" s="48"/>
+      <c r="H327" s="43"/>
+      <c r="I327" s="43"/>
     </row>
     <row r="328" spans="1:9">
       <c r="D328" s="5"/>
-      <c r="E328" s="52" t="s">
+      <c r="E328" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="F328" s="52"/>
-      <c r="G328" s="50" t="s">
+      <c r="F328" s="47"/>
+      <c r="G328" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="H328" s="50"/>
-      <c r="I328" s="50"/>
+      <c r="H328" s="45"/>
+      <c r="I328" s="45"/>
     </row>
     <row r="329" spans="1:9">
       <c r="D329" s="5"/>
-      <c r="E329" s="51" t="s">
+      <c r="E329" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F329" s="51"/>
-      <c r="G329" s="48" t="s">
+      <c r="F329" s="46"/>
+      <c r="G329" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="H329" s="48"/>
-      <c r="I329" s="48"/>
+      <c r="H329" s="43"/>
+      <c r="I329" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13964,23 +14366,23 @@
       <c r="A5" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" t="s">
         <v>300</v>
       </c>
@@ -13989,12 +14391,12 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" t="s">
         <v>300</v>
       </c>
@@ -14003,12 +14405,12 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
       <c r="F8" t="s">
         <v>300</v>
       </c>
@@ -14017,12 +14419,12 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
       <c r="F9" t="s">
         <v>440</v>
       </c>
@@ -14031,12 +14433,12 @@
       <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
       <c r="F10" t="s">
         <v>441</v>
       </c>
@@ -14045,12 +14447,12 @@
       <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
       <c r="F11" t="s">
         <v>300</v>
       </c>
@@ -14059,12 +14461,12 @@
       <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="48" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
       <c r="F12" t="s">
         <v>300</v>
       </c>
@@ -14073,12 +14475,12 @@
       <c r="A13" s="14">
         <v>8</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="48" t="s">
         <v>433</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
       <c r="F13" t="s">
         <v>442</v>
       </c>
@@ -14087,12 +14489,12 @@
       <c r="A14" s="14">
         <v>9</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
       <c r="F14" t="s">
         <v>518</v>
       </c>
@@ -14101,34 +14503,34 @@
       <c r="A15" s="14">
         <v>10</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>11</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="14">
         <v>12</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="20"/>
@@ -15134,12 +15536,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
@@ -15147,6 +15543,12 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15174,16 +15576,16 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="7" t="s">
         <v>554</v>
       </c>
